--- a/ru/downloads/data-excel/17.4.1.xlsx
+++ b/ru/downloads/data-excel/17.4.1.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -148,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -178,6 +185,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +504,7 @@
     <col min="1" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +528,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -541,7 +552,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -557,9 +568,11 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -605,9 +618,17 @@
       <c r="O4" s="6">
         <v>2018</v>
       </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="11">
+        <v>2019</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>2020</v>
+      </c>
+      <c r="R4" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -653,9 +674,17 @@
       <c r="O5" s="8">
         <v>13</v>
       </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="12">
+        <v>12.9</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>15.2</v>
+      </c>
+      <c r="R5" s="12">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -679,7 +708,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -697,7 +726,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -715,7 +744,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -733,7 +762,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -751,7 +780,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -769,7 +798,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -787,7 +816,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -805,7 +834,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -823,7 +852,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>

--- a/ru/downloads/data-excel/17.4.1.xlsx
+++ b/ru/downloads/data-excel/17.4.1.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +102,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -155,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -181,14 +174,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +490,7 @@
     <col min="1" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +514,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -552,7 +538,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -571,8 +557,9 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -618,17 +605,20 @@
       <c r="O4" s="6">
         <v>2018</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="6">
         <v>2019</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="6">
         <v>2020</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -641,50 +631,53 @@
       <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>6.9</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>6.8</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>6.2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>6.7</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>7.2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>6.8</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>7.6</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>12.2</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>11.3</v>
       </c>
       <c r="O5" s="8">
         <v>13</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="8">
         <v>12.9</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="8">
         <v>15.2</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="8">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="8">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -708,7 +701,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -726,149 +719,149 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ru/downloads/data-excel/17.4.1.xlsx
+++ b/ru/downloads/data-excel/17.4.1.xlsx
@@ -479,18 +479,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="21" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +513,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -538,7 +537,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -558,8 +557,10 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -617,8 +618,14 @@
       <c r="S4" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="6">
+        <v>2023</v>
+      </c>
+      <c r="U4" s="6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -676,8 +683,14 @@
       <c r="S5" s="8">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="U5" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -701,7 +714,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -719,7 +732,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -737,7 +750,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -755,7 +768,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -773,7 +786,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -791,7 +804,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -809,7 +822,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -827,7 +840,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -845,7 +858,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
